--- a/portfolio/allocation/Fixed Income Portfolio.xlsx
+++ b/portfolio/allocation/Fixed Income Portfolio.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeroenbouma/Documents/OpenBB Dany/portfolio/allocation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2649650F-FCF1-3A46-8855-B2BB899E5DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5C900C-AB14-7348-A616-9A90C3D4DE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{09AD307C-AFDD-734B-8A1F-F9F0177E6514}"/>
   </bookViews>
   <sheets>
-    <sheet name="allocation" sheetId="1" r:id="rId1"/>
+    <sheet name="Allocation" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -494,7 +494,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -593,7 +593,7 @@
         <v>4070000</v>
       </c>
       <c r="K3" s="3">
-        <f ca="1">J3/$J$4</f>
+        <f>J3/$J$4</f>
         <v>1</v>
       </c>
     </row>
@@ -623,11 +623,11 @@
         <v>25</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">SUM(J3:J5)</f>
-        <v>4120000</v>
+        <f>SUM(J3)</f>
+        <v>4070000</v>
       </c>
       <c r="K4" s="3">
-        <f ca="1">J4/$J$4</f>
+        <f>J4/$J$4</f>
         <v>1</v>
       </c>
     </row>
@@ -764,11 +764,11 @@
         <v>11</v>
       </c>
       <c r="J12" s="2">
-        <f>SUMIF(D:D,I12,F:F)</f>
+        <f t="shared" ref="J12:J17" si="0">SUMIF(D:D,I12,F:F)</f>
         <v>1050000</v>
       </c>
       <c r="K12" s="3">
-        <f>J12/$J$18</f>
+        <f t="shared" ref="K12:K18" si="1">J12/$J$18</f>
         <v>0.25798525798525801</v>
       </c>
     </row>
@@ -777,11 +777,11 @@
         <v>13</v>
       </c>
       <c r="J13" s="2">
-        <f>SUMIF(D:D,I13,F:F)</f>
+        <f t="shared" si="0"/>
         <v>770000</v>
       </c>
       <c r="K13" s="3">
-        <f>J13/$J$18</f>
+        <f t="shared" si="1"/>
         <v>0.1891891891891892</v>
       </c>
     </row>
@@ -790,11 +790,11 @@
         <v>15</v>
       </c>
       <c r="J14" s="2">
-        <f>SUMIF(D:D,I14,F:F)</f>
+        <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
       <c r="K14" s="3">
-        <f>J14/$J$18</f>
+        <f t="shared" si="1"/>
         <v>0.24570024570024571</v>
       </c>
     </row>
@@ -803,11 +803,11 @@
         <v>19</v>
       </c>
       <c r="J15" s="2">
-        <f>SUMIF(D:D,I15,F:F)</f>
+        <f t="shared" si="0"/>
         <v>800000</v>
       </c>
       <c r="K15" s="3">
-        <f>J15/$J$18</f>
+        <f t="shared" si="1"/>
         <v>0.19656019656019655</v>
       </c>
     </row>
@@ -816,11 +816,11 @@
         <v>21</v>
       </c>
       <c r="J16" s="2">
-        <f>SUMIF(D:D,I16,F:F)</f>
+        <f t="shared" si="0"/>
         <v>150000</v>
       </c>
       <c r="K16" s="3">
-        <f>J16/$J$18</f>
+        <f t="shared" si="1"/>
         <v>3.6855036855036855E-2</v>
       </c>
     </row>
@@ -829,11 +829,11 @@
         <v>17</v>
       </c>
       <c r="J17" s="2">
-        <f>SUMIF(D:D,I17,F:F)</f>
+        <f t="shared" si="0"/>
         <v>300000</v>
       </c>
       <c r="K17" s="3">
-        <f>J17/$J$18</f>
+        <f t="shared" si="1"/>
         <v>7.3710073710073709E-2</v>
       </c>
     </row>
@@ -846,7 +846,7 @@
         <v>4070000</v>
       </c>
       <c r="K18" s="3">
-        <f>J18/$J$18</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -892,7 +892,7 @@
       <c r="K27" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K21 K27">
+  <conditionalFormatting sqref="K27 K21">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -904,7 +904,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5 K3">
+  <conditionalFormatting sqref="K3 K5">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
